--- a/A02PQP1_Fin Buff Calc.xlsx
+++ b/A02PQP1_Fin Buff Calc.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\TRABAJOS ONY\25-A02PQP1 (Irenia-Ony)\7.- UPDATE TEST &amp; TERM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\25-A02PQP1 (Irenia-Ony)\8.- CORRECION DE CONSTRUCCION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA8068-ED1E-4F90-B82A-54D6C4E74069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45EC13-F4E5-4973-B67B-285C3C46C671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>464455.39</v>
+        <v>484513.94</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>113456.78</v>
+        <v>128787.19</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.24427917609051752</v>
+        <v>0.26580698586298673</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>17018.517</v>
+        <v>19318.0785</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>141.820975</v>
+        <v>160.98398749999998</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1257,11 +1257,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>25527.7755</v>
+        <v>28977.117749999998</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>212.73146249999999</v>
+        <v>241.47598124999999</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
@@ -1353,6 +1353,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077032FF824D2AE488462F1841EBA28CC" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a58bd07298e53f370e97470010a13c95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1466,33 +1481,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F063A7C-61AB-479C-A1E5-92DE09B7F3E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1513,9 +1505,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F063A7C-61AB-479C-A1E5-92DE09B7F3E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>